--- a/en/downloads/data-excel/13.1.1.xlsx
+++ b/en/downloads/data-excel/13.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Глобальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Глобальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="49">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
     <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>46</v>
       </c>
@@ -692,7 +692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>42</v>
       </c>
@@ -703,7 +703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -720,8 +720,9 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -770,8 +771,11 @@
       <c r="P4" s="12">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -820,8 +824,11 @@
       <c r="P5" s="13">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -870,8 +877,11 @@
       <c r="P6" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -920,8 +930,11 @@
       <c r="P7" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -970,8 +983,11 @@
       <c r="P8" s="31">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
@@ -1020,8 +1036,11 @@
       <c r="P9" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
@@ -1070,8 +1089,11 @@
       <c r="P10" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1120,8 +1142,11 @@
       <c r="P11" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
@@ -1170,8 +1195,11 @@
       <c r="P12" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -1220,8 +1248,11 @@
       <c r="P13" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1270,8 +1301,11 @@
       <c r="P14" s="34">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -1320,8 +1354,11 @@
       <c r="P15" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -1370,8 +1407,11 @@
       <c r="P16" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1420,8 +1460,11 @@
       <c r="P17" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1470,8 +1513,11 @@
       <c r="P18" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
@@ -1520,8 +1566,11 @@
       <c r="P19" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1570,8 +1619,11 @@
       <c r="P20" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1672,11 @@
       <c r="P21" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1670,8 +1725,11 @@
       <c r="P22" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1720,8 +1778,11 @@
       <c r="P23" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>36</v>
       </c>
@@ -1770,8 +1831,11 @@
       <c r="P24" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>37</v>
       </c>
@@ -1820,8 +1884,11 @@
       <c r="P25" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1937,11 @@
       <c r="P26" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
@@ -1920,8 +1990,11 @@
       <c r="P27" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
@@ -1970,8 +2043,11 @@
       <c r="P28" s="21">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2020,8 +2096,11 @@
       <c r="P29" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
@@ -2070,8 +2149,11 @@
       <c r="P30" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -2120,8 +2202,11 @@
       <c r="P31" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
@@ -2170,8 +2255,11 @@
       <c r="P32" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
@@ -2220,8 +2308,11 @@
       <c r="P33" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q33" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
@@ -2270,8 +2361,11 @@
       <c r="P34" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>45</v>
       </c>

--- a/en/downloads/data-excel/13.1.1.xlsx
+++ b/en/downloads/data-excel/13.1.1.xlsx
@@ -672,7 +672,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1249,7 @@
         <v>33</v>
       </c>
       <c r="Q13" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">

--- a/en/downloads/data-excel/13.1.1.xlsx
+++ b/en/downloads/data-excel/13.1.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
     <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>46</v>
       </c>
@@ -692,7 +692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>42</v>
       </c>
@@ -703,7 +703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -721,8 +721,9 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -774,8 +775,11 @@
       <c r="Q4" s="12">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="12">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -827,8 +831,11 @@
       <c r="Q5" s="13">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -880,8 +887,11 @@
       <c r="Q6" s="20">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -933,8 +943,11 @@
       <c r="Q7" s="21">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -986,8 +999,11 @@
       <c r="Q8" s="31">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="31">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
@@ -1039,8 +1055,11 @@
       <c r="Q9" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
@@ -1092,8 +1111,11 @@
       <c r="Q10" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1145,8 +1167,11 @@
       <c r="Q11" s="34">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
@@ -1198,8 +1223,11 @@
       <c r="Q12" s="20">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -1251,8 +1279,11 @@
       <c r="Q13" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1304,8 +1335,11 @@
       <c r="Q14" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -1357,8 +1391,11 @@
       <c r="Q15" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -1410,8 +1447,11 @@
       <c r="Q16" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1463,8 +1503,11 @@
       <c r="Q17" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1516,8 +1559,11 @@
       <c r="Q18" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
@@ -1569,8 +1615,11 @@
       <c r="Q19" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1622,8 +1671,11 @@
       <c r="Q20" s="34">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
@@ -1675,8 +1727,11 @@
       <c r="Q21" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1728,8 +1783,11 @@
       <c r="Q22" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1781,8 +1839,11 @@
       <c r="Q23" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>36</v>
       </c>
@@ -1834,8 +1895,11 @@
       <c r="Q24" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>37</v>
       </c>
@@ -1887,8 +1951,11 @@
       <c r="Q25" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1940,8 +2007,11 @@
       <c r="Q26" s="34">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
@@ -1993,8 +2063,11 @@
       <c r="Q27" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
@@ -2046,8 +2119,11 @@
       <c r="Q28" s="21">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2099,8 +2175,11 @@
       <c r="Q29" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
@@ -2152,8 +2231,11 @@
       <c r="Q30" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -2205,8 +2287,11 @@
       <c r="Q31" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
@@ -2258,8 +2343,11 @@
       <c r="Q32" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
@@ -2311,8 +2399,11 @@
       <c r="Q33" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
@@ -2364,8 +2455,11 @@
       <c r="Q34" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>45</v>
       </c>

--- a/en/downloads/data-excel/13.1.1.xlsx
+++ b/en/downloads/data-excel/13.1.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="49">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
     <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>46</v>
       </c>
@@ -692,7 +692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>42</v>
       </c>
@@ -703,7 +703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -722,8 +722,9 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -778,8 +779,11 @@
       <c r="R4" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -834,8 +838,11 @@
       <c r="R5" s="13">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -890,8 +897,11 @@
       <c r="R6" s="20">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="20">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -946,8 +956,11 @@
       <c r="R7" s="21">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -1002,8 +1015,11 @@
       <c r="R8" s="31">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="31">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
@@ -1058,8 +1074,11 @@
       <c r="R9" s="20">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
@@ -1114,8 +1133,11 @@
       <c r="R10" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1170,8 +1192,11 @@
       <c r="R11" s="34">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
@@ -1226,8 +1251,11 @@
       <c r="R12" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -1282,8 +1310,11 @@
       <c r="R13" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1338,8 +1369,11 @@
       <c r="R14" s="34">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -1394,8 +1428,11 @@
       <c r="R15" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -1450,8 +1487,11 @@
       <c r="R16" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1506,8 +1546,11 @@
       <c r="R17" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1562,8 +1605,11 @@
       <c r="R18" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
@@ -1618,8 +1664,11 @@
       <c r="R19" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1674,8 +1723,11 @@
       <c r="R20" s="34">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
@@ -1730,8 +1782,11 @@
       <c r="R21" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1786,8 +1841,11 @@
       <c r="R22" s="21">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1842,8 +1900,11 @@
       <c r="R23" s="34">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>36</v>
       </c>
@@ -1898,8 +1959,11 @@
       <c r="R24" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>37</v>
       </c>
@@ -1954,8 +2018,11 @@
       <c r="R25" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2010,8 +2077,11 @@
       <c r="R26" s="34">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
@@ -2066,8 +2136,11 @@
       <c r="R27" s="20">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
@@ -2122,8 +2195,11 @@
       <c r="R28" s="21">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S28" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2178,8 +2254,11 @@
       <c r="R29" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
@@ -2234,8 +2313,11 @@
       <c r="R30" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -2290,8 +2372,11 @@
       <c r="R31" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S31" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
@@ -2346,8 +2431,11 @@
       <c r="R32" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
@@ -2402,8 +2490,11 @@
       <c r="R33" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S33" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
@@ -2458,8 +2549,11 @@
       <c r="R34" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>45</v>
       </c>

--- a/en/downloads/data-excel/13.1.1.xlsx
+++ b/en/downloads/data-excel/13.1.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -669,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
     <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>46</v>
       </c>
@@ -692,7 +692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>42</v>
       </c>
@@ -703,7 +703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -722,9 +722,8 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -779,11 +778,8 @@
       <c r="R4" s="12">
         <v>2021</v>
       </c>
-      <c r="S4" s="12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -838,11 +834,8 @@
       <c r="R5" s="13">
         <v>109</v>
       </c>
-      <c r="S5" s="13">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -897,11 +890,8 @@
       <c r="R6" s="20">
         <v>74</v>
       </c>
-      <c r="S6" s="20">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -956,11 +946,8 @@
       <c r="R7" s="21">
         <v>35</v>
       </c>
-      <c r="S7" s="21">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -1015,11 +1002,8 @@
       <c r="R8" s="31">
         <v>36</v>
       </c>
-      <c r="S8" s="31">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
@@ -1074,11 +1058,8 @@
       <c r="R9" s="20">
         <v>35</v>
       </c>
-      <c r="S9" s="20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
@@ -1133,11 +1114,8 @@
       <c r="R10" s="21">
         <v>1</v>
       </c>
-      <c r="S10" s="21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1192,11 +1170,8 @@
       <c r="R11" s="34">
         <v>15</v>
       </c>
-      <c r="S11" s="34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
@@ -1251,11 +1226,8 @@
       <c r="R12" s="20">
         <v>8</v>
       </c>
-      <c r="S12" s="20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -1310,11 +1282,8 @@
       <c r="R13" s="21">
         <v>7</v>
       </c>
-      <c r="S13" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1369,11 +1338,8 @@
       <c r="R14" s="34">
         <v>12</v>
       </c>
-      <c r="S14" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -1428,11 +1394,8 @@
       <c r="R15" s="20">
         <v>7</v>
       </c>
-      <c r="S15" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -1487,11 +1450,8 @@
       <c r="R16" s="21">
         <v>5</v>
       </c>
-      <c r="S16" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1546,11 +1506,8 @@
       <c r="R17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1605,11 +1562,8 @@
       <c r="R18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
@@ -1664,11 +1618,8 @@
       <c r="R19" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S19" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1723,11 +1674,8 @@
       <c r="R20" s="34">
         <v>17</v>
       </c>
-      <c r="S20" s="34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
@@ -1782,11 +1730,8 @@
       <c r="R21" s="20">
         <v>8</v>
       </c>
-      <c r="S21" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1841,11 +1786,8 @@
       <c r="R22" s="21">
         <v>9</v>
       </c>
-      <c r="S22" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1900,11 +1842,8 @@
       <c r="R23" s="34">
         <v>9</v>
       </c>
-      <c r="S23" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>36</v>
       </c>
@@ -1959,11 +1898,8 @@
       <c r="R24" s="20">
         <v>7</v>
       </c>
-      <c r="S24" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>37</v>
       </c>
@@ -2018,11 +1954,8 @@
       <c r="R25" s="21">
         <v>2</v>
       </c>
-      <c r="S25" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2077,11 +2010,8 @@
       <c r="R26" s="34">
         <v>20</v>
       </c>
-      <c r="S26" s="34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
@@ -2136,11 +2066,8 @@
       <c r="R27" s="20">
         <v>9</v>
       </c>
-      <c r="S27" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
@@ -2195,11 +2122,8 @@
       <c r="R28" s="21">
         <v>11</v>
       </c>
-      <c r="S28" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2254,11 +2178,8 @@
       <c r="R29" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="S29" s="34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
@@ -2313,11 +2234,8 @@
       <c r="R30" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -2372,11 +2290,8 @@
       <c r="R31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S31" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
@@ -2431,11 +2346,8 @@
       <c r="R32" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="S32" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
@@ -2490,11 +2402,8 @@
       <c r="R33" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S33" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
@@ -2549,11 +2458,8 @@
       <c r="R34" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="S34" s="24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>45</v>
       </c>

--- a/en/downloads/data-excel/13.1.1.xlsx
+++ b/en/downloads/data-excel/13.1.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="49">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +255,19 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -386,6 +399,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -669,19 +691,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="1" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>46</v>
       </c>
@@ -692,7 +712,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>42</v>
       </c>
@@ -703,7 +723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -723,8 +743,9 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -782,8 +803,11 @@
       <c r="S4" s="12">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -830,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="P5" s="13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="13">
         <v>51</v>
@@ -841,8 +865,11 @@
       <c r="S5" s="13">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
@@ -889,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="P6" s="20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="20">
         <v>29</v>
@@ -900,8 +927,11 @@
       <c r="S6" s="20">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -959,8 +989,11 @@
       <c r="S7" s="21">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1051,11 @@
       <c r="S8" s="31">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
@@ -1077,8 +1113,11 @@
       <c r="S9" s="20">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
@@ -1136,8 +1175,11 @@
       <c r="S10" s="21">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1237,11 @@
       <c r="S11" s="34">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
@@ -1254,8 +1299,11 @@
       <c r="S12" s="20">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -1305,7 +1353,7 @@
         <v>33</v>
       </c>
       <c r="Q13" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13" s="21">
         <v>7</v>
@@ -1313,8 +1361,11 @@
       <c r="S13" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="34" t="s">
         <v>33</v>
@@ -1372,8 +1423,11 @@
       <c r="S14" s="34">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -1420,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="20" t="s">
         <v>33</v>
@@ -1431,8 +1485,11 @@
       <c r="S15" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
@@ -1490,8 +1547,11 @@
       <c r="S16" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1549,8 +1609,11 @@
       <c r="S17" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -1608,8 +1671,11 @@
       <c r="S18" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
@@ -1667,8 +1733,11 @@
       <c r="S19" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1726,8 +1795,11 @@
       <c r="S20" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>36</v>
       </c>
@@ -1785,8 +1857,11 @@
       <c r="S21" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1844,8 +1919,11 @@
       <c r="S22" s="21">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1903,8 +1981,11 @@
       <c r="S23" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>36</v>
       </c>
@@ -1962,8 +2043,11 @@
       <c r="S24" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>37</v>
       </c>
@@ -2021,8 +2105,11 @@
       <c r="S25" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T25" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -2080,8 +2167,11 @@
       <c r="S26" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>36</v>
       </c>
@@ -2139,8 +2229,11 @@
       <c r="S27" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>37</v>
       </c>
@@ -2198,8 +2291,11 @@
       <c r="S28" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T28" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="32" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>27</v>
       </c>
@@ -2257,8 +2353,11 @@
       <c r="S29" s="34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>36</v>
       </c>
@@ -2316,8 +2415,11 @@
       <c r="S30" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -2375,8 +2477,11 @@
       <c r="S31" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T31" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>30</v>
       </c>
@@ -2434,8 +2539,11 @@
       <c r="S32" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>36</v>
       </c>
@@ -2493,8 +2601,11 @@
       <c r="S33" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T33" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>37</v>
       </c>
@@ -2552,15 +2663,18 @@
       <c r="S34" s="24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="T34" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="37" t="s">
         <v>44</v>
       </c>
     </row>
